--- a/Dili_LHS_main_noPRVs_results/Post_Processed_Dili_LHS_main_noPRVs_results.xlsx
+++ b/Dili_LHS_main_noPRVs_results/Post_Processed_Dili_LHS_main_noPRVs_results.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20370"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmi002\Desktop\Python WIP\thesis_project\Dili_LHS_main_noPRVs_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF666325-1DC3-44A6-A2DE-AA824587355E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -31,12 +32,12 @@
     <sheet name="prv2" sheetId="17" r:id="rId17"/>
     <sheet name="prv3" sheetId="18" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="173">
   <si>
     <t>Summary of results for tank connected to each node</t>
   </si>
@@ -572,16 +573,46 @@
   </si>
   <si>
     <t>Column1</t>
+  </si>
+  <si>
+    <r>
+      <t>Tank Volume
+(m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -615,8 +646,23 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -628,8 +674,32 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -652,12 +722,159 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -670,14 +887,59 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+      <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
@@ -776,7 +1038,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -789,141 +1051,138 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB" sz="1800"/>
-              <a:t>Tank Location Results</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15224245221883906"/>
-          <c:y val="0.11100634681532776"/>
-          <c:w val="0.75988909503561208"/>
-          <c:h val="0.65202003681963561"/>
+          <c:x val="0.1643250211113986"/>
+          <c:y val="5.9186080940026822E-2"/>
+          <c:w val="0.69298916004692324"/>
+          <c:h val="0.67105337318205394"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Total Annual Exp</c:v>
+            <c:v>Total Annual Expenditure</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="10"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="1.2025554302893539E-2"/>
-                  <c:y val="-0.1286943357524695"/>
-                </c:manualLayout>
-              </c:layout>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="8"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                  <a:srgbClr val="00B050"/>
                 </a:solidFill>
-                <a:ln>
+                <a:ln w="9525">
                   <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000">
-                      <a:lumMod val="25000"/>
-                      <a:lumOff val="75000"/>
-                    </a:sysClr>
+                    <a:srgbClr val="00B050"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-D4B1-4D98-8713-40E0AE759784}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="8"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="00B050"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-35AC-46ED-945D-9B915F467B94}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.9005122254564185E-3"/>
+                  <c:y val="-0.19032202839930662"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" b="1" u="sng"/>
+                      <a:t>Minimum:</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:fld id="{56C4A524-4919-4E6C-8030-C88E31D57082}" type="CATEGORYNAME">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CATEGORY NAME]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{6583452E-141B-459D-8C00-27029760452E}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="1"/>
@@ -932,15 +1191,11 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                    <a:prstGeom prst="wedgeRectCallout">
-                      <a:avLst/>
-                    </a:prstGeom>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                  </c15:spPr>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-35AC-46ED-945D-9B915F467B94}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1005,12 +1260,57 @@
             <c:strRef>
               <c:f>Summary!$B$5:$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>R_TIBAR_2</c:v>
+                  <c:v>ETA_COMORO</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>R_TIBAR_1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>R_TIBAR_2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>R_TIBAR_3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>R_TIBAR_4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>J139</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>prv2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>J73</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>prv3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>J72</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>J66</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>J71</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>J67</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>J65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>J70</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>TIBAR_PORT</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>J69</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1019,18 +1319,68 @@
             <c:numRef>
               <c:f>Summary!$V$5:$V$21</c:f>
               <c:numCache>
-                <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
-                <c:ptCount val="2"/>
+                <c:formatCode>_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>657821.4</c:v>
+                  <c:v>718633.11</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>658215.24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>657821.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>709031.81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>709014.03</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>727233.12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>727233.73</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>740037.11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>740036.39</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>756516.55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>760466.01</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>786444.78</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>795056.75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>797526.37</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>807400.68</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>818551.52</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>729227.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F0C2-4CDE-B004-7D5A0F733758}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1042,46 +1392,200 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="489039880"/>
-        <c:axId val="489037136"/>
+        <c:axId val="600261496"/>
+        <c:axId val="600263848"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Energy</c:v>
+            <c:v>Energy Consumption</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="C00000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="8"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="00B050"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-D4B1-4D98-8713-40E0AE759784}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="8"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="00B050"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-D4B1-4D98-8713-40E0AE759784}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:val>
             <c:numRef>
               <c:f>Summary!$H$5:$H$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>3276.44</c:v>
+                  <c:v>3243.95</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3271.92</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3276.44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3194.79</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3194.71</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3194.39</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3194.39</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3179.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3179.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3179.93</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3178.83</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3179.91</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3180.86</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3195</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3181.05</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3183.02</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3194.66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F0C2-4CDE-B004-7D5A0F733758}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Feasible solutions where Tank height &lt; 50m</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D4B1-4D98-8713-40E0AE759784}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1093,11 +1597,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="489037920"/>
-        <c:axId val="489040272"/>
+        <c:axId val="600260712"/>
+        <c:axId val="600261888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="489039880"/>
+        <c:axId val="600261496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1110,7 +1614,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1123,13 +1627,20 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1400"/>
-                  <a:t>Tank Location</a:t>
+                  <a:rPr lang="en-GB" b="1"/>
+                  <a:t>Balancing tank location</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.41282941526027517"/>
+              <c:y val="0.88951079477514405"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1143,7 +1654,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1167,9 +1678,115 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-2880000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="600263848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="600263848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" b="1"/>
+                  <a:t>Total Annual Expenditure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1196,36 +1813,20 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489037136"/>
+        <c:crossAx val="600261496"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="200000"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="489037136"/>
+        <c:axId val="600261888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="900000"/>
-          <c:min val="0"/>
+          <c:max val="3320"/>
+          <c:min val="3120"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
+        <c:axPos val="r"/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1233,7 +1834,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1246,13 +1847,26 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1400"/>
-                  <a:t>Total Annual Expenditure</a:t>
+                  <a:rPr lang="en-GB" b="1"/>
+                  <a:t>Energy</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" b="1" baseline="0"/>
+                  <a:t> Consumption </a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" b="1" baseline="0"/>
+                  <a:t>(kWh/day)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1266,7 +1880,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1282,14 +1896,20 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ " sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1313,112 +1933,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489039880"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="489040272"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="3300"/>
-          <c:min val="3120"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB" sz="1400"/>
-                  <a:t>Energy Consumption (kWh/d)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="489037920"/>
+        <c:crossAx val="600260712"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="40"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="489037920"/>
+        <c:axId val="600260712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1427,7 +1948,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="489040272"/>
+        <c:crossAx val="600261888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1448,10 +1969,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.22260756864242026"/>
-          <c:y val="0.59197839085183823"/>
-          <c:w val="0.12549305178253337"/>
-          <c:h val="0.1010107960902939"/>
+          <c:x val="0.2539042432152836"/>
+          <c:y val="0.56148636844665478"/>
+          <c:w val="0.3796470703903338"/>
+          <c:h val="0.17029513614477507"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1492,12 +2013,966 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1643250211113986"/>
+          <c:y val="5.9186080940026822E-2"/>
+          <c:w val="0.69298916004692324"/>
+          <c:h val="0.67105337318205394"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Total Annual Expenditure</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="8"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="00B050"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-E450-444D-961D-36533AF7793A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="8"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="00B050"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-E450-444D-961D-36533AF7793A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.9005122254564185E-3"/>
+                  <c:y val="-0.19032202839930662"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" b="1" u="sng"/>
+                      <a:t>Minimum:</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:fld id="{56C4A524-4919-4E6C-8030-C88E31D57082}" type="CATEGORYNAME">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CATEGORY NAME]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{6583452E-141B-459D-8C00-27029760452E}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-E450-444D-961D-36533AF7793A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$B$5:$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>ETA_COMORO</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>R_TIBAR_1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>R_TIBAR_2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>R_TIBAR_3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>R_TIBAR_4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>J139</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>prv2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>J73</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>prv3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>J72</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>J66</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>J71</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>J67</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>J65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>J70</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>TIBAR_PORT</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>J69</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$V$5:$V$21</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>718633.11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>658215.24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>657821.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>709031.81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>709014.03</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>727233.12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>727233.73</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>740037.11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>740036.39</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>756516.55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>760466.01</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>786444.78</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>795056.75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>797526.37</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>807400.68</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>818551.52</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>729227.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E450-444D-961D-36533AF7793A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="600261496"/>
+        <c:axId val="600263848"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Energy Consumption</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="8"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="00B050"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-E450-444D-961D-36533AF7793A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="8"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="00B050"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-E450-444D-961D-36533AF7793A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$H$5:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>3243.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3271.92</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3276.44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3194.79</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3194.71</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3194.39</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3194.39</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3179.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3179.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3179.93</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3178.83</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3179.91</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3180.86</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3195</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3181.05</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3183.02</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3194.66</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E450-444D-961D-36533AF7793A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="600260712"/>
+        <c:axId val="600261888"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="600261496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Balancing tank location</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.41282941526027517"/>
+              <c:y val="0.88951079477514405"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-2880000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="600263848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="600263848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Total Annual Expenditure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="600261496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="200000"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="600261888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Energy</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Consumption </a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t>(kWh/day)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="600260712"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="40"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="600260712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="600261888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.2539042432152836"/>
+          <c:y val="0.60041057997806058"/>
+          <c:w val="0.57119745289460722"/>
+          <c:h val="0.11257895271832642"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1560,8 +3035,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1588,8 +3103,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1669,11 +3184,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -1684,11 +3194,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -1700,7 +3205,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1720,9 +3225,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1735,10 +3237,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1778,22 +3280,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1898,8 +3401,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2031,19 +3534,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2057,6 +3561,533 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2081,20 +4112,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>628649</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>995984</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>62533</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D197D3A-2C3C-4634-B9DF-01A29FFEBAA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2108,41 +4147,76 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>752475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>224459</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>43483</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D684B187-D235-41D2-8156-8AB913982B57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:V21" totalsRowShown="0" headerRowDxfId="9">
-  <autoFilter ref="A4:V21">
-    <filterColumn colId="9">
-      <customFilters>
-        <customFilter operator="lessThan" val="50"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A4:V21" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="A4:V21" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState ref="A5:V21">
+    <sortCondition ref="C4:C21"/>
+  </sortState>
   <tableColumns count="22">
-    <tableColumn id="1" name="Column1" dataDxfId="8"/>
-    <tableColumn id="2" name="Node"/>
-    <tableColumn id="3" name="Max Water Age_x000a_(h)"/>
-    <tableColumn id="4" name="Duty Head_x000a_(m)"/>
-    <tableColumn id="5" name="Duty Flow_x000a_(L/s)"/>
-    <tableColumn id="6" name="Actual average pumped flow_x000a_(L/s)"/>
-    <tableColumn id="7" name="Cost_x000a_(€ /day)" dataDxfId="7"/>
-    <tableColumn id="8" name="Energy_x000a_(kWh/day)"/>
-    <tableColumn id="9" name="Tank Elevation_x000a_(metres above sea level)"/>
-    <tableColumn id="10" name="Tank height above ground_x000a_(metres above nearest node)"/>
-    <tableColumn id="11" name="Tank Volume_x000a_(m3)"/>
-    <tableColumn id="12" name="Minimum Pressure_x000a_(mwc)"/>
-    <tableColumn id="13" name="Critical Hour_x000a_(hrs)"/>
-    <tableColumn id="14" name="Critical Node"/>
-    <tableColumn id="15" name="Critical Pipes_x000a_(list)"/>
-    <tableColumn id="16" name="Pump Investment Cost_x000a_(Capital Investment)" dataDxfId="6"/>
-    <tableColumn id="17" name="Tank Investment Cost_x000a_(Capital Investment)" dataDxfId="5"/>
-    <tableColumn id="18" name="Total Pipe Replacement Cost_x000a_(Capital Investment)" dataDxfId="4"/>
-    <tableColumn id="19" name="Total Investment Cost_x000a_(Grand Total)" dataDxfId="3"/>
-    <tableColumn id="20" name="Maintenance Cost_x000a_(pa)" dataDxfId="2"/>
-    <tableColumn id="21" name="Annuity_x000a_(pa)" dataDxfId="1"/>
-    <tableColumn id="22" name="Total Annual Expenditure" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Node"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Max Water Age_x000a_(h)"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Duty Head_x000a_(m)"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Duty Flow_x000a_(L/s)"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Actual average pumped flow_x000a_(L/s)"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Cost_x000a_(€ /day)" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Energy_x000a_(kWh/day)"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Tank Elevation_x000a_(metres above sea level)"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Tank height above ground_x000a_(metres above nearest node)"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Tank Volume_x000a_(m3)"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Minimum Pressure_x000a_(mwc)"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Critical Hour_x000a_(hrs)"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Critical Node"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Critical Pipes_x000a_(list)"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Pump Investment Cost_x000a_(Capital Investment)" dataDxfId="6"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Tank Investment Cost_x000a_(Capital Investment)" dataDxfId="5"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Total Pipe Replacement Cost_x000a_(Capital Investment)" dataDxfId="4"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Total Investment Cost_x000a_(Grand Total)" dataDxfId="3"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Maintenance Cost_x000a_(pa)" dataDxfId="2"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Annuity_x000a_(pa)" dataDxfId="1"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Total Annual Expenditure" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2432,11 +4506,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AM78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="V35" sqref="V35"/>
+    <sheetView tabSelected="1" topLeftCell="E22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2455,14 +4529,27 @@
     <col min="20" max="20" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="13.140625" customWidth="1"/>
+    <col min="27" max="27" width="2.28515625" customWidth="1"/>
+    <col min="28" max="28" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.7109375" customWidth="1"/>
+    <col min="30" max="30" width="7.28515625" customWidth="1"/>
+    <col min="31" max="31" width="7.85546875" customWidth="1"/>
+    <col min="32" max="32" width="15.42578125" customWidth="1"/>
+    <col min="33" max="33" width="18" customWidth="1"/>
+    <col min="34" max="34" width="16.42578125" customWidth="1"/>
+    <col min="35" max="35" width="15" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.28515625" customWidth="1"/>
+    <col min="37" max="37" width="14.140625" customWidth="1"/>
+    <col min="38" max="38" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="2.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>171</v>
       </c>
@@ -2530,36 +4617,36 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5">
         <v>0</v>
       </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5">
-        <v>5.91</v>
-      </c>
       <c r="D5">
-        <v>142.94</v>
+        <v>145.13</v>
       </c>
       <c r="E5">
         <v>71.22</v>
       </c>
       <c r="F5">
-        <v>71.22</v>
+        <v>71.239999999999995</v>
       </c>
       <c r="G5" s="2">
-        <v>1341.9</v>
+        <v>1362.46</v>
       </c>
       <c r="H5">
-        <v>3195</v>
+        <v>3243.95</v>
       </c>
       <c r="I5">
-        <v>332.2</v>
+        <v>341.58</v>
       </c>
       <c r="J5">
-        <v>322.2</v>
+        <v>241.58</v>
       </c>
       <c r="K5">
         <v>804.56</v>
@@ -2568,7 +4655,7 @@
         <v>20.100000000000001</v>
       </c>
       <c r="M5">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N5" t="s">
         <v>24</v>
@@ -2580,54 +4667,54 @@
         <v>676560.33</v>
       </c>
       <c r="Q5" s="2">
-        <v>1198371.53</v>
+        <v>1003779.16</v>
       </c>
       <c r="R5" s="2">
-        <v>1285976.51</v>
+        <v>549689</v>
       </c>
       <c r="S5" s="2">
-        <v>3160908.37</v>
+        <v>2230028.4900000002</v>
       </c>
       <c r="T5" s="2">
-        <v>32149.77</v>
+        <v>26911.599999999999</v>
       </c>
       <c r="U5" s="2">
-        <v>275582.40000000002</v>
-      </c>
-      <c r="V5" s="2">
-        <v>797526.37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+        <v>194424.05</v>
+      </c>
+      <c r="V5" s="7">
+        <v>718633.11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6">
-        <v>5.13</v>
-      </c>
       <c r="D6">
-        <v>142.21</v>
+        <v>146.38</v>
       </c>
       <c r="E6">
         <v>71.22</v>
       </c>
       <c r="F6">
-        <v>71.23</v>
+        <v>71.239999999999995</v>
       </c>
       <c r="G6" s="2">
-        <v>1335.11</v>
+        <v>1374.21</v>
       </c>
       <c r="H6">
-        <v>3178.83</v>
+        <v>3271.92</v>
       </c>
       <c r="I6">
-        <v>333.99</v>
-      </c>
-      <c r="J6">
-        <v>303.99</v>
+        <v>338.25</v>
+      </c>
+      <c r="J6" s="5">
+        <v>18.25</v>
       </c>
       <c r="K6">
         <v>804.56</v>
@@ -2636,7 +4723,7 @@
         <v>20.100000000000001</v>
       </c>
       <c r="M6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N6" t="s">
         <v>24</v>
@@ -2648,63 +4735,63 @@
         <v>676560.33</v>
       </c>
       <c r="Q6" s="2">
-        <v>1154409.73</v>
+        <v>464733.54</v>
       </c>
       <c r="R6" s="2">
-        <v>956240.38</v>
+        <v>404358</v>
       </c>
       <c r="S6" s="2">
-        <v>2787210.45</v>
+        <v>1545651.87</v>
       </c>
       <c r="T6" s="2">
-        <v>30149.4</v>
+        <v>21872.58</v>
       </c>
       <c r="U6" s="2">
-        <v>243001.71</v>
-      </c>
-      <c r="V6" s="2">
-        <v>760466.01</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+        <v>134756.97</v>
+      </c>
+      <c r="V6" s="7">
+        <v>658215.24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C7">
-        <v>5.64</v>
+        <v>1.05</v>
       </c>
       <c r="D7">
-        <v>142.31</v>
+        <v>146.58000000000001</v>
       </c>
       <c r="E7">
         <v>71.22</v>
       </c>
       <c r="F7">
-        <v>71.22</v>
+        <v>71.239999999999995</v>
       </c>
       <c r="G7" s="2">
-        <v>1335.96</v>
+        <v>1376.11</v>
       </c>
       <c r="H7">
-        <v>3180.86</v>
+        <v>3276.44</v>
       </c>
       <c r="I7">
-        <v>333.87</v>
-      </c>
-      <c r="J7">
-        <v>323.87</v>
+        <v>338.09</v>
+      </c>
+      <c r="J7" s="5">
+        <v>18.09</v>
       </c>
       <c r="K7">
         <v>804.56</v>
       </c>
       <c r="L7">
-        <v>20.100000000000001</v>
+        <v>20.09</v>
       </c>
       <c r="M7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N7" t="s">
         <v>24</v>
@@ -2716,36 +4803,36 @@
         <v>676560.33</v>
       </c>
       <c r="Q7" s="2">
-        <v>1202415.31</v>
+        <v>464357.87</v>
       </c>
       <c r="R7" s="2">
-        <v>1278530.21</v>
+        <v>392958</v>
       </c>
       <c r="S7" s="2">
-        <v>3157505.85</v>
+        <v>1533876.21</v>
       </c>
       <c r="T7" s="2">
-        <v>32144.89</v>
+        <v>21812.57</v>
       </c>
       <c r="U7" s="2">
-        <v>275285.75</v>
-      </c>
-      <c r="V7" s="2">
-        <v>795056.75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+        <v>133730.32</v>
+      </c>
+      <c r="V7" s="7">
+        <v>657821.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="C8">
-        <v>8.09</v>
+        <v>2.63</v>
       </c>
       <c r="D8">
-        <v>142.91999999999999</v>
+        <v>142.93</v>
       </c>
       <c r="E8">
         <v>71.22</v>
@@ -2754,22 +4841,22 @@
         <v>71.239999999999995</v>
       </c>
       <c r="G8" s="2">
-        <v>1341.76</v>
+        <v>1341.81</v>
       </c>
       <c r="H8">
-        <v>3194.66</v>
+        <v>3194.79</v>
       </c>
       <c r="I8">
-        <v>334.03</v>
+        <v>334.55</v>
       </c>
       <c r="J8">
-        <v>214.03</v>
+        <v>174.55</v>
       </c>
       <c r="K8">
         <v>804.56</v>
       </c>
       <c r="L8">
-        <v>20.09</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="M8">
         <v>23</v>
@@ -2784,54 +4871,54 @@
         <v>676560.33</v>
       </c>
       <c r="Q8" s="2">
-        <v>937278.6</v>
+        <v>841993.37</v>
       </c>
       <c r="R8" s="2">
-        <v>815244</v>
+        <v>694344</v>
       </c>
       <c r="S8" s="2">
-        <v>2429082.94</v>
+        <v>2212897.71</v>
       </c>
       <c r="T8" s="2">
-        <v>27707.37</v>
+        <v>26340.59</v>
       </c>
       <c r="U8" s="2">
-        <v>211778.52</v>
-      </c>
-      <c r="V8" s="2">
-        <v>729227.16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+        <v>192930.51</v>
+      </c>
+      <c r="V8" s="7">
+        <v>709031.81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="C9">
-        <v>6.01</v>
+        <v>2.66</v>
       </c>
       <c r="D9">
-        <v>142.32</v>
+        <v>142.93</v>
       </c>
       <c r="E9">
         <v>71.22</v>
       </c>
       <c r="F9">
-        <v>71.23</v>
+        <v>71.239999999999995</v>
       </c>
       <c r="G9" s="2">
-        <v>1336.04</v>
+        <v>1341.78</v>
       </c>
       <c r="H9">
-        <v>3181.05</v>
+        <v>3194.71</v>
       </c>
       <c r="I9">
-        <v>334.03</v>
+        <v>334.53</v>
       </c>
       <c r="J9">
-        <v>324.02999999999997</v>
+        <v>174.53</v>
       </c>
       <c r="K9">
         <v>804.56</v>
@@ -2840,7 +4927,7 @@
         <v>20.100000000000001</v>
       </c>
       <c r="M9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N9" t="s">
         <v>24</v>
@@ -2852,63 +4939,63 @@
         <v>676560.33</v>
       </c>
       <c r="Q9" s="2">
-        <v>1202790.6100000001</v>
+        <v>841934.74</v>
       </c>
       <c r="R9" s="2">
-        <v>1411735.73</v>
+        <v>694344</v>
       </c>
       <c r="S9" s="2">
-        <v>3291086.67</v>
+        <v>2212839.0699999998</v>
       </c>
       <c r="T9" s="2">
-        <v>32813.919999999998</v>
+        <v>26340.12</v>
       </c>
       <c r="U9" s="2">
-        <v>286931.93</v>
-      </c>
-      <c r="V9" s="2">
-        <v>807400.68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+        <v>192925.39</v>
+      </c>
+      <c r="V9" s="7">
+        <v>709014.03</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C10">
-        <v>5.35</v>
+        <v>3.18</v>
       </c>
       <c r="D10">
-        <v>142.26</v>
+        <v>142.91</v>
       </c>
       <c r="E10">
         <v>71.22</v>
       </c>
       <c r="F10">
-        <v>71.23</v>
+        <v>71.239999999999995</v>
       </c>
       <c r="G10" s="2">
-        <v>1335.56</v>
+        <v>1341.64</v>
       </c>
       <c r="H10">
-        <v>3179.91</v>
+        <v>3194.39</v>
       </c>
       <c r="I10">
-        <v>334.08</v>
+        <v>334.04</v>
       </c>
       <c r="J10">
-        <v>324.08</v>
+        <v>254.04</v>
       </c>
       <c r="K10">
         <v>804.56</v>
       </c>
       <c r="L10">
-        <v>20.100000000000001</v>
+        <v>20.09</v>
       </c>
       <c r="M10">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N10" t="s">
         <v>24</v>
@@ -2920,36 +5007,36 @@
         <v>676560.33</v>
       </c>
       <c r="Q10" s="2">
-        <v>1202904.4099999999</v>
+        <v>1033855.68</v>
       </c>
       <c r="R10" s="2">
-        <v>1186187.27</v>
+        <v>694344</v>
       </c>
       <c r="S10" s="2">
-        <v>3065652.02</v>
+        <v>2404760.02</v>
       </c>
       <c r="T10" s="2">
-        <v>31687.09</v>
+        <v>27875.49</v>
       </c>
       <c r="U10" s="2">
-        <v>267277.51</v>
-      </c>
-      <c r="V10" s="2">
-        <v>786444.78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+        <v>209657.94</v>
+      </c>
+      <c r="V10" s="7">
+        <v>727233.12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="C11">
-        <v>4.9000000000000004</v>
+        <v>3.18</v>
       </c>
       <c r="D11">
-        <v>142.26</v>
+        <v>142.91</v>
       </c>
       <c r="E11">
         <v>71.22</v>
@@ -2958,25 +5045,25 @@
         <v>71.239999999999995</v>
       </c>
       <c r="G11" s="2">
-        <v>1335.57</v>
+        <v>1341.64</v>
       </c>
       <c r="H11">
-        <v>3179.93</v>
+        <v>3194.39</v>
       </c>
       <c r="I11">
-        <v>334.32</v>
+        <v>334.04</v>
       </c>
       <c r="J11">
-        <v>304.32</v>
+        <v>254.04</v>
       </c>
       <c r="K11">
         <v>804.56</v>
       </c>
       <c r="L11">
-        <v>20.100000000000001</v>
+        <v>20.09</v>
       </c>
       <c r="M11">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N11" t="s">
         <v>24</v>
@@ -2988,25 +5075,25 @@
         <v>676560.33</v>
       </c>
       <c r="Q11" s="2">
-        <v>1155216.83</v>
+        <v>1033856.79</v>
       </c>
       <c r="R11" s="2">
-        <v>910742.08</v>
+        <v>694344</v>
       </c>
       <c r="S11" s="2">
-        <v>2742519.24</v>
+        <v>2404761.12</v>
       </c>
       <c r="T11" s="2">
-        <v>29928.36</v>
+        <v>27875.49</v>
       </c>
       <c r="U11" s="2">
-        <v>239105.32</v>
-      </c>
-      <c r="V11" s="2">
-        <v>756516.55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+        <v>209658.03</v>
+      </c>
+      <c r="V11" s="7">
+        <v>727233.73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>7</v>
       </c>
@@ -3070,22 +5157,22 @@
       <c r="U12" s="2">
         <v>223544.04</v>
       </c>
-      <c r="V12" s="2">
+      <c r="V12" s="7">
         <v>740037.11</v>
       </c>
     </row>
-    <row r="13" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="C13">
-        <v>3.18</v>
+        <v>4.63</v>
       </c>
       <c r="D13">
-        <v>142.91</v>
+        <v>142.26</v>
       </c>
       <c r="E13">
         <v>71.22</v>
@@ -3094,22 +5181,22 @@
         <v>71.239999999999995</v>
       </c>
       <c r="G13" s="2">
-        <v>1341.64</v>
+        <v>1335.49</v>
       </c>
       <c r="H13">
-        <v>3194.39</v>
+        <v>3179.75</v>
       </c>
       <c r="I13">
-        <v>334.04</v>
+        <v>334.44</v>
       </c>
       <c r="J13">
-        <v>254.04</v>
+        <v>304.44</v>
       </c>
       <c r="K13">
         <v>804.56</v>
       </c>
       <c r="L13">
-        <v>20.09</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="M13">
         <v>23</v>
@@ -3124,60 +5211,60 @@
         <v>676560.33</v>
       </c>
       <c r="Q13" s="2">
-        <v>1033855.68</v>
+        <v>1155519.79</v>
       </c>
       <c r="R13" s="2">
-        <v>694344</v>
+        <v>731954.3</v>
       </c>
       <c r="S13" s="2">
-        <v>2404760.02</v>
+        <v>2564034.42</v>
       </c>
       <c r="T13" s="2">
-        <v>27875.49</v>
+        <v>29036.85</v>
       </c>
       <c r="U13" s="2">
-        <v>209657.94</v>
-      </c>
-      <c r="V13" s="2">
-        <v>727233.12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+        <v>223544.21</v>
+      </c>
+      <c r="V13" s="7">
+        <v>740036.39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C14">
-        <v>6.41</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D14">
-        <v>142.41</v>
+        <v>142.26</v>
       </c>
       <c r="E14">
         <v>71.22</v>
       </c>
       <c r="F14">
-        <v>71.22</v>
+        <v>71.239999999999995</v>
       </c>
       <c r="G14" s="2">
-        <v>1336.87</v>
+        <v>1335.57</v>
       </c>
       <c r="H14">
-        <v>3183.02</v>
+        <v>3179.93</v>
       </c>
       <c r="I14">
-        <v>333.87</v>
+        <v>334.32</v>
       </c>
       <c r="J14">
-        <v>323.87</v>
+        <v>304.32</v>
       </c>
       <c r="K14">
         <v>804.56</v>
       </c>
       <c r="L14">
-        <v>20.09</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="M14">
         <v>22</v>
@@ -3192,63 +5279,63 @@
         <v>676560.33</v>
       </c>
       <c r="Q14" s="2">
-        <v>1202397.1200000001</v>
+        <v>1155216.83</v>
       </c>
       <c r="R14" s="2">
-        <v>1529820.07</v>
+        <v>910742.08</v>
       </c>
       <c r="S14" s="2">
-        <v>3408777.52</v>
+        <v>2742519.24</v>
       </c>
       <c r="T14" s="2">
-        <v>33401.199999999997</v>
+        <v>29928.36</v>
       </c>
       <c r="U14" s="2">
-        <v>297192.76</v>
-      </c>
-      <c r="V14" s="2">
-        <v>818551.52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+        <v>239105.32</v>
+      </c>
+      <c r="V14" s="7">
+        <v>756516.55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C15">
-        <v>1.05</v>
+        <v>5.13</v>
       </c>
       <c r="D15">
-        <v>146.58000000000001</v>
+        <v>142.21</v>
       </c>
       <c r="E15">
         <v>71.22</v>
       </c>
       <c r="F15">
-        <v>71.239999999999995</v>
+        <v>71.23</v>
       </c>
       <c r="G15" s="2">
-        <v>1376.11</v>
+        <v>1335.11</v>
       </c>
       <c r="H15">
-        <v>3276.44</v>
+        <v>3178.83</v>
       </c>
       <c r="I15">
-        <v>338.09</v>
-      </c>
-      <c r="J15" s="5">
-        <v>18.09</v>
+        <v>333.99</v>
+      </c>
+      <c r="J15">
+        <v>303.99</v>
       </c>
       <c r="K15">
         <v>804.56</v>
       </c>
       <c r="L15">
-        <v>20.09</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="M15">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N15" t="s">
         <v>24</v>
@@ -3260,54 +5347,58 @@
         <v>676560.33</v>
       </c>
       <c r="Q15" s="2">
-        <v>464357.87</v>
+        <v>1154409.73</v>
       </c>
       <c r="R15" s="2">
-        <v>392958</v>
+        <v>956240.38</v>
       </c>
       <c r="S15" s="2">
-        <v>1533876.21</v>
+        <v>2787210.45</v>
       </c>
       <c r="T15" s="2">
-        <v>21812.57</v>
+        <v>30149.4</v>
       </c>
       <c r="U15" s="2">
-        <v>133730.32</v>
-      </c>
-      <c r="V15" s="2">
-        <v>657821.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+        <v>243001.71</v>
+      </c>
+      <c r="V15" s="7">
+        <v>760466.01</v>
+      </c>
+      <c r="AE15">
+        <f>17/2</f>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="C16">
-        <v>2.63</v>
+        <v>5.35</v>
       </c>
       <c r="D16">
-        <v>142.93</v>
+        <v>142.26</v>
       </c>
       <c r="E16">
         <v>71.22</v>
       </c>
       <c r="F16">
-        <v>71.239999999999995</v>
+        <v>71.23</v>
       </c>
       <c r="G16" s="2">
-        <v>1341.81</v>
+        <v>1335.56</v>
       </c>
       <c r="H16">
-        <v>3194.79</v>
+        <v>3179.91</v>
       </c>
       <c r="I16">
-        <v>334.55</v>
+        <v>334.08</v>
       </c>
       <c r="J16">
-        <v>174.55</v>
+        <v>324.08</v>
       </c>
       <c r="K16">
         <v>804.56</v>
@@ -3316,7 +5407,7 @@
         <v>20.100000000000001</v>
       </c>
       <c r="M16">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N16" t="s">
         <v>24</v>
@@ -3328,54 +5419,54 @@
         <v>676560.33</v>
       </c>
       <c r="Q16" s="2">
-        <v>841993.37</v>
+        <v>1202904.4099999999</v>
       </c>
       <c r="R16" s="2">
-        <v>694344</v>
+        <v>1186187.27</v>
       </c>
       <c r="S16" s="2">
-        <v>2212897.71</v>
+        <v>3065652.02</v>
       </c>
       <c r="T16" s="2">
-        <v>26340.59</v>
+        <v>31687.09</v>
       </c>
       <c r="U16" s="2">
-        <v>192930.51</v>
-      </c>
-      <c r="V16" s="2">
-        <v>709031.81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+        <v>267277.51</v>
+      </c>
+      <c r="V16" s="7">
+        <v>786444.78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="C17">
-        <v>2.66</v>
+        <v>5.64</v>
       </c>
       <c r="D17">
-        <v>142.93</v>
+        <v>142.31</v>
       </c>
       <c r="E17">
         <v>71.22</v>
       </c>
       <c r="F17">
-        <v>71.239999999999995</v>
+        <v>71.22</v>
       </c>
       <c r="G17" s="2">
-        <v>1341.78</v>
+        <v>1335.96</v>
       </c>
       <c r="H17">
-        <v>3194.71</v>
+        <v>3180.86</v>
       </c>
       <c r="I17">
-        <v>334.53</v>
+        <v>333.87</v>
       </c>
       <c r="J17">
-        <v>174.53</v>
+        <v>323.87</v>
       </c>
       <c r="K17">
         <v>804.56</v>
@@ -3384,7 +5475,7 @@
         <v>20.100000000000001</v>
       </c>
       <c r="M17">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N17" t="s">
         <v>24</v>
@@ -3396,54 +5487,54 @@
         <v>676560.33</v>
       </c>
       <c r="Q17" s="2">
-        <v>841934.74</v>
+        <v>1202415.31</v>
       </c>
       <c r="R17" s="2">
-        <v>694344</v>
+        <v>1278530.21</v>
       </c>
       <c r="S17" s="2">
-        <v>2212839.0699999998</v>
+        <v>3157505.85</v>
       </c>
       <c r="T17" s="2">
-        <v>26340.12</v>
+        <v>32144.89</v>
       </c>
       <c r="U17" s="2">
-        <v>192925.39</v>
-      </c>
-      <c r="V17" s="2">
-        <v>709014.03</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+        <v>275285.75</v>
+      </c>
+      <c r="V17" s="7">
+        <v>795056.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>5.91</v>
       </c>
       <c r="D18">
-        <v>145.13</v>
+        <v>142.94</v>
       </c>
       <c r="E18">
         <v>71.22</v>
       </c>
       <c r="F18">
-        <v>71.239999999999995</v>
+        <v>71.22</v>
       </c>
       <c r="G18" s="2">
-        <v>1362.46</v>
+        <v>1341.9</v>
       </c>
       <c r="H18">
-        <v>3243.95</v>
+        <v>3195</v>
       </c>
       <c r="I18">
-        <v>341.58</v>
+        <v>332.2</v>
       </c>
       <c r="J18">
-        <v>241.58</v>
+        <v>322.2</v>
       </c>
       <c r="K18">
         <v>804.56</v>
@@ -3452,7 +5543,7 @@
         <v>20.100000000000001</v>
       </c>
       <c r="M18">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N18" t="s">
         <v>24</v>
@@ -3464,54 +5555,54 @@
         <v>676560.33</v>
       </c>
       <c r="Q18" s="2">
-        <v>1003779.16</v>
+        <v>1198371.53</v>
       </c>
       <c r="R18" s="2">
-        <v>549689</v>
+        <v>1285976.51</v>
       </c>
       <c r="S18" s="2">
-        <v>2230028.4900000002</v>
+        <v>3160908.37</v>
       </c>
       <c r="T18" s="2">
-        <v>26911.599999999999</v>
+        <v>32149.77</v>
       </c>
       <c r="U18" s="2">
-        <v>194424.05</v>
-      </c>
-      <c r="V18" s="2">
-        <v>718633.11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+        <v>275582.40000000002</v>
+      </c>
+      <c r="V18" s="7">
+        <v>797526.37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>6.01</v>
       </c>
       <c r="D19">
-        <v>146.38</v>
+        <v>142.32</v>
       </c>
       <c r="E19">
         <v>71.22</v>
       </c>
       <c r="F19">
-        <v>71.239999999999995</v>
+        <v>71.23</v>
       </c>
       <c r="G19" s="2">
-        <v>1374.21</v>
+        <v>1336.04</v>
       </c>
       <c r="H19">
-        <v>3271.92</v>
+        <v>3181.05</v>
       </c>
       <c r="I19">
-        <v>338.25</v>
-      </c>
-      <c r="J19" s="5">
-        <v>18.25</v>
+        <v>334.03</v>
+      </c>
+      <c r="J19">
+        <v>324.02999999999997</v>
       </c>
       <c r="K19">
         <v>804.56</v>
@@ -3520,7 +5611,7 @@
         <v>20.100000000000001</v>
       </c>
       <c r="M19">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N19" t="s">
         <v>24</v>
@@ -3532,54 +5623,54 @@
         <v>676560.33</v>
       </c>
       <c r="Q19" s="2">
-        <v>464733.54</v>
+        <v>1202790.6100000001</v>
       </c>
       <c r="R19" s="2">
-        <v>404358</v>
+        <v>1411735.73</v>
       </c>
       <c r="S19" s="2">
-        <v>1545651.87</v>
+        <v>3291086.67</v>
       </c>
       <c r="T19" s="2">
-        <v>21872.58</v>
+        <v>32813.919999999998</v>
       </c>
       <c r="U19" s="2">
-        <v>134756.97</v>
-      </c>
-      <c r="V19" s="2">
-        <v>658215.24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+        <v>286931.93</v>
+      </c>
+      <c r="V19" s="7">
+        <v>807400.68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="C20">
-        <v>3.18</v>
+        <v>6.41</v>
       </c>
       <c r="D20">
-        <v>142.91</v>
+        <v>142.41</v>
       </c>
       <c r="E20">
         <v>71.22</v>
       </c>
       <c r="F20">
-        <v>71.239999999999995</v>
+        <v>71.22</v>
       </c>
       <c r="G20" s="2">
-        <v>1341.64</v>
+        <v>1336.87</v>
       </c>
       <c r="H20">
-        <v>3194.39</v>
+        <v>3183.02</v>
       </c>
       <c r="I20">
-        <v>334.04</v>
+        <v>333.87</v>
       </c>
       <c r="J20">
-        <v>254.04</v>
+        <v>323.87</v>
       </c>
       <c r="K20">
         <v>804.56</v>
@@ -3588,7 +5679,7 @@
         <v>20.09</v>
       </c>
       <c r="M20">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N20" t="s">
         <v>24</v>
@@ -3600,36 +5691,36 @@
         <v>676560.33</v>
       </c>
       <c r="Q20" s="2">
-        <v>1033856.79</v>
+        <v>1202397.1200000001</v>
       </c>
       <c r="R20" s="2">
-        <v>694344</v>
+        <v>1529820.07</v>
       </c>
       <c r="S20" s="2">
-        <v>2404761.12</v>
+        <v>3408777.52</v>
       </c>
       <c r="T20" s="2">
-        <v>27875.49</v>
+        <v>33401.199999999997</v>
       </c>
       <c r="U20" s="2">
-        <v>209658.03</v>
-      </c>
-      <c r="V20" s="2">
-        <v>727233.73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+        <v>297192.76</v>
+      </c>
+      <c r="V20" s="7">
+        <v>818551.52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="C21">
-        <v>4.63</v>
+        <v>8.09</v>
       </c>
       <c r="D21">
-        <v>142.26</v>
+        <v>142.91999999999999</v>
       </c>
       <c r="E21">
         <v>71.22</v>
@@ -3638,22 +5729,22 @@
         <v>71.239999999999995</v>
       </c>
       <c r="G21" s="2">
-        <v>1335.49</v>
+        <v>1341.76</v>
       </c>
       <c r="H21">
-        <v>3179.75</v>
+        <v>3194.66</v>
       </c>
       <c r="I21">
-        <v>334.44</v>
+        <v>334.03</v>
       </c>
       <c r="J21">
-        <v>304.44</v>
+        <v>214.03</v>
       </c>
       <c r="K21">
         <v>804.56</v>
       </c>
       <c r="L21">
-        <v>20.100000000000001</v>
+        <v>20.09</v>
       </c>
       <c r="M21">
         <v>23</v>
@@ -3668,28 +5759,1562 @@
         <v>676560.33</v>
       </c>
       <c r="Q21" s="2">
-        <v>1155519.79</v>
+        <v>937278.6</v>
       </c>
       <c r="R21" s="2">
-        <v>731954.3</v>
+        <v>815244</v>
       </c>
       <c r="S21" s="2">
-        <v>2564034.42</v>
+        <v>2429082.94</v>
       </c>
       <c r="T21" s="2">
-        <v>29036.85</v>
+        <v>27707.37</v>
       </c>
       <c r="U21" s="2">
-        <v>223544.21</v>
-      </c>
-      <c r="V21" s="2">
-        <v>740036.39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+        <v>211778.52</v>
+      </c>
+      <c r="V21" s="7">
+        <v>729227.16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="8"/>
+      <c r="AJ25" s="8"/>
+      <c r="AK25" s="8"/>
+      <c r="AL25" s="8"/>
+      <c r="AM25" s="8"/>
+    </row>
+    <row r="26" spans="1:39" ht="60" x14ac:dyDescent="0.25">
+      <c r="AA26" s="9"/>
+      <c r="AB26" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD26" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE26" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF26" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG26" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH26" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI26" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ26" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK26" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="AL26" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM26" s="9"/>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC27" s="14">
+        <v>5.91</v>
+      </c>
+      <c r="AD27" s="14">
+        <v>142.94</v>
+      </c>
+      <c r="AE27" s="14">
+        <v>71.22</v>
+      </c>
+      <c r="AF27" s="14">
+        <v>71.22</v>
+      </c>
+      <c r="AG27" s="15">
+        <v>1341.9</v>
+      </c>
+      <c r="AH27" s="16">
+        <v>3195</v>
+      </c>
+      <c r="AI27" s="14">
+        <v>332.2</v>
+      </c>
+      <c r="AJ27" s="14">
+        <v>322.2</v>
+      </c>
+      <c r="AK27" s="14">
+        <v>804.56</v>
+      </c>
+      <c r="AL27" s="17">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="AM27" s="8"/>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC28" s="19">
+        <v>5.13</v>
+      </c>
+      <c r="AD28" s="19">
+        <v>142.21</v>
+      </c>
+      <c r="AE28" s="19">
+        <v>71.22</v>
+      </c>
+      <c r="AF28" s="19">
+        <v>71.23</v>
+      </c>
+      <c r="AG28" s="20">
+        <v>1335.11</v>
+      </c>
+      <c r="AH28" s="21">
+        <v>3178.83</v>
+      </c>
+      <c r="AI28" s="19">
+        <v>333.99</v>
+      </c>
+      <c r="AJ28" s="19">
+        <v>303.99</v>
+      </c>
+      <c r="AK28" s="19">
+        <v>804.56</v>
+      </c>
+      <c r="AL28" s="22">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="AM28" s="8"/>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="E29">
         <v>1</v>
       </c>
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC29" s="24">
+        <v>5.64</v>
+      </c>
+      <c r="AD29" s="24">
+        <v>142.31</v>
+      </c>
+      <c r="AE29" s="24">
+        <v>71.22</v>
+      </c>
+      <c r="AF29" s="24">
+        <v>71.22</v>
+      </c>
+      <c r="AG29" s="6">
+        <v>1335.96</v>
+      </c>
+      <c r="AH29" s="25">
+        <v>3180.86</v>
+      </c>
+      <c r="AI29" s="24">
+        <v>333.87</v>
+      </c>
+      <c r="AJ29" s="24">
+        <v>323.87</v>
+      </c>
+      <c r="AK29" s="24">
+        <v>804.56</v>
+      </c>
+      <c r="AL29" s="26">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="AM29" s="8"/>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC30" s="19">
+        <v>8.09</v>
+      </c>
+      <c r="AD30" s="19">
+        <v>142.91999999999999</v>
+      </c>
+      <c r="AE30" s="19">
+        <v>71.22</v>
+      </c>
+      <c r="AF30" s="19">
+        <v>71.239999999999995</v>
+      </c>
+      <c r="AG30" s="20">
+        <v>1341.76</v>
+      </c>
+      <c r="AH30" s="21">
+        <v>3194.66</v>
+      </c>
+      <c r="AI30" s="19">
+        <v>334.03</v>
+      </c>
+      <c r="AJ30" s="19">
+        <v>214.03</v>
+      </c>
+      <c r="AK30" s="19">
+        <v>804.56</v>
+      </c>
+      <c r="AL30" s="22">
+        <v>20.09</v>
+      </c>
+      <c r="AM30" s="8"/>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC31" s="24">
+        <v>6.01</v>
+      </c>
+      <c r="AD31" s="24">
+        <v>142.32</v>
+      </c>
+      <c r="AE31" s="24">
+        <v>71.22</v>
+      </c>
+      <c r="AF31" s="24">
+        <v>71.23</v>
+      </c>
+      <c r="AG31" s="6">
+        <v>1336.04</v>
+      </c>
+      <c r="AH31" s="25">
+        <v>3181.05</v>
+      </c>
+      <c r="AI31" s="24">
+        <v>334.03</v>
+      </c>
+      <c r="AJ31" s="24">
+        <v>324.02999999999997</v>
+      </c>
+      <c r="AK31" s="24">
+        <v>804.56</v>
+      </c>
+      <c r="AL31" s="26">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="AM31" s="8"/>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC32" s="19">
+        <v>5.35</v>
+      </c>
+      <c r="AD32" s="19">
+        <v>142.26</v>
+      </c>
+      <c r="AE32" s="19">
+        <v>71.22</v>
+      </c>
+      <c r="AF32" s="19">
+        <v>71.23</v>
+      </c>
+      <c r="AG32" s="20">
+        <v>1335.56</v>
+      </c>
+      <c r="AH32" s="21">
+        <v>3179.91</v>
+      </c>
+      <c r="AI32" s="19">
+        <v>334.08</v>
+      </c>
+      <c r="AJ32" s="19">
+        <v>324.08</v>
+      </c>
+      <c r="AK32" s="19">
+        <v>804.56</v>
+      </c>
+      <c r="AL32" s="22">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="AM32" s="8"/>
+    </row>
+    <row r="33" spans="27:39" x14ac:dyDescent="0.25">
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC33" s="24">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AD33" s="24">
+        <v>142.26</v>
+      </c>
+      <c r="AE33" s="24">
+        <v>71.22</v>
+      </c>
+      <c r="AF33" s="24">
+        <v>71.239999999999995</v>
+      </c>
+      <c r="AG33" s="6">
+        <v>1335.57</v>
+      </c>
+      <c r="AH33" s="25">
+        <v>3179.93</v>
+      </c>
+      <c r="AI33" s="24">
+        <v>334.32</v>
+      </c>
+      <c r="AJ33" s="24">
+        <v>304.32</v>
+      </c>
+      <c r="AK33" s="24">
+        <v>804.56</v>
+      </c>
+      <c r="AL33" s="26">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="AM33" s="8"/>
+    </row>
+    <row r="34" spans="27:39" x14ac:dyDescent="0.25">
+      <c r="AA34" s="8"/>
+      <c r="AB34" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC34" s="19">
+        <v>4.63</v>
+      </c>
+      <c r="AD34" s="19">
+        <v>142.26</v>
+      </c>
+      <c r="AE34" s="19">
+        <v>71.22</v>
+      </c>
+      <c r="AF34" s="19">
+        <v>71.239999999999995</v>
+      </c>
+      <c r="AG34" s="20">
+        <v>1335.5</v>
+      </c>
+      <c r="AH34" s="21">
+        <v>3179.75</v>
+      </c>
+      <c r="AI34" s="19">
+        <v>334.44</v>
+      </c>
+      <c r="AJ34" s="19">
+        <v>304.44</v>
+      </c>
+      <c r="AK34" s="19">
+        <v>804.56</v>
+      </c>
+      <c r="AL34" s="22">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="AM34" s="8"/>
+    </row>
+    <row r="35" spans="27:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA35" s="8"/>
+      <c r="AB35" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC35" s="37">
+        <v>3.18</v>
+      </c>
+      <c r="AD35" s="37">
+        <v>142.91</v>
+      </c>
+      <c r="AE35" s="37">
+        <v>71.22</v>
+      </c>
+      <c r="AF35" s="37">
+        <v>71.239999999999995</v>
+      </c>
+      <c r="AG35" s="38">
+        <v>1341.64</v>
+      </c>
+      <c r="AH35" s="39">
+        <v>3194.39</v>
+      </c>
+      <c r="AI35" s="37">
+        <v>334.04</v>
+      </c>
+      <c r="AJ35" s="37">
+        <v>254.04</v>
+      </c>
+      <c r="AK35" s="37">
+        <v>804.56</v>
+      </c>
+      <c r="AL35" s="40">
+        <v>20.09</v>
+      </c>
+      <c r="AM35" s="8"/>
+    </row>
+    <row r="36" spans="27:39" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="8"/>
+      <c r="AC36" s="8"/>
+      <c r="AD36" s="8"/>
+      <c r="AE36" s="8"/>
+      <c r="AF36" s="8"/>
+      <c r="AG36" s="8"/>
+      <c r="AH36" s="8"/>
+      <c r="AI36" s="8"/>
+      <c r="AJ36" s="8"/>
+      <c r="AK36" s="8"/>
+      <c r="AL36" s="8"/>
+      <c r="AM36" s="8"/>
+    </row>
+    <row r="37" spans="27:39" ht="75" x14ac:dyDescent="0.25">
+      <c r="AA37" s="8"/>
+      <c r="AB37" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC37" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD37" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE37" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF37" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG37" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH37" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI37" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ37" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK37" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL37" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM37" s="8"/>
+    </row>
+    <row r="38" spans="27:39" x14ac:dyDescent="0.25">
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC38" s="14">
+        <v>22</v>
+      </c>
+      <c r="AD38" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE38" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF38" s="15">
+        <v>676560.33</v>
+      </c>
+      <c r="AG38" s="15">
+        <v>1198371.53</v>
+      </c>
+      <c r="AH38" s="15">
+        <v>1285976.51</v>
+      </c>
+      <c r="AI38" s="15">
+        <v>3160908.37</v>
+      </c>
+      <c r="AJ38" s="15">
+        <v>32149.77</v>
+      </c>
+      <c r="AK38" s="15">
+        <v>275582.40000000002</v>
+      </c>
+      <c r="AL38" s="32">
+        <v>797526.37</v>
+      </c>
+      <c r="AM38" s="8"/>
+    </row>
+    <row r="39" spans="27:39" x14ac:dyDescent="0.25">
+      <c r="AA39" s="8"/>
+      <c r="AB39" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC39" s="19">
+        <v>22</v>
+      </c>
+      <c r="AD39" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE39" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF39" s="20">
+        <v>676560.33</v>
+      </c>
+      <c r="AG39" s="20">
+        <v>1154409.73</v>
+      </c>
+      <c r="AH39" s="20">
+        <v>956240.38</v>
+      </c>
+      <c r="AI39" s="20">
+        <v>2787210.45</v>
+      </c>
+      <c r="AJ39" s="20">
+        <v>30149.4</v>
+      </c>
+      <c r="AK39" s="20">
+        <v>243001.71</v>
+      </c>
+      <c r="AL39" s="33">
+        <v>760466.01</v>
+      </c>
+      <c r="AM39" s="8"/>
+    </row>
+    <row r="40" spans="27:39" x14ac:dyDescent="0.25">
+      <c r="AA40" s="8"/>
+      <c r="AB40" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC40" s="24">
+        <v>22</v>
+      </c>
+      <c r="AD40" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE40" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF40" s="6">
+        <v>676560.33</v>
+      </c>
+      <c r="AG40" s="6">
+        <v>1202415.31</v>
+      </c>
+      <c r="AH40" s="6">
+        <v>1278530.21</v>
+      </c>
+      <c r="AI40" s="6">
+        <v>3157505.85</v>
+      </c>
+      <c r="AJ40" s="6">
+        <v>32144.89</v>
+      </c>
+      <c r="AK40" s="6">
+        <v>275285.75</v>
+      </c>
+      <c r="AL40" s="34">
+        <v>795056.75</v>
+      </c>
+      <c r="AM40" s="8"/>
+    </row>
+    <row r="41" spans="27:39" x14ac:dyDescent="0.25">
+      <c r="AA41" s="8"/>
+      <c r="AB41" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC41" s="19">
+        <v>23</v>
+      </c>
+      <c r="AD41" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE41" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF41" s="20">
+        <v>676560.33</v>
+      </c>
+      <c r="AG41" s="20">
+        <v>937278.6</v>
+      </c>
+      <c r="AH41" s="20">
+        <v>815244</v>
+      </c>
+      <c r="AI41" s="20">
+        <v>2429082.94</v>
+      </c>
+      <c r="AJ41" s="20">
+        <v>27707.37</v>
+      </c>
+      <c r="AK41" s="20">
+        <v>211778.52</v>
+      </c>
+      <c r="AL41" s="33">
+        <v>729227.16</v>
+      </c>
+      <c r="AM41" s="8"/>
+    </row>
+    <row r="42" spans="27:39" x14ac:dyDescent="0.25">
+      <c r="AA42" s="8"/>
+      <c r="AB42" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC42" s="24">
+        <v>22</v>
+      </c>
+      <c r="AD42" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE42" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF42" s="6">
+        <v>676560.33</v>
+      </c>
+      <c r="AG42" s="6">
+        <v>1202790.6100000001</v>
+      </c>
+      <c r="AH42" s="6">
+        <v>1411735.73</v>
+      </c>
+      <c r="AI42" s="6">
+        <v>3291086.67</v>
+      </c>
+      <c r="AJ42" s="6">
+        <v>32813.919999999998</v>
+      </c>
+      <c r="AK42" s="6">
+        <v>286931.93</v>
+      </c>
+      <c r="AL42" s="34">
+        <v>807400.68</v>
+      </c>
+      <c r="AM42" s="8"/>
+    </row>
+    <row r="43" spans="27:39" x14ac:dyDescent="0.25">
+      <c r="AA43" s="8"/>
+      <c r="AB43" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC43" s="19">
+        <v>22</v>
+      </c>
+      <c r="AD43" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE43" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF43" s="20">
+        <v>676560.33</v>
+      </c>
+      <c r="AG43" s="20">
+        <v>1202904.4099999999</v>
+      </c>
+      <c r="AH43" s="20">
+        <v>1186187.27</v>
+      </c>
+      <c r="AI43" s="20">
+        <v>3065652.02</v>
+      </c>
+      <c r="AJ43" s="20">
+        <v>31687.09</v>
+      </c>
+      <c r="AK43" s="20">
+        <v>267277.51</v>
+      </c>
+      <c r="AL43" s="33">
+        <v>786444.78</v>
+      </c>
+      <c r="AM43" s="8"/>
+    </row>
+    <row r="44" spans="27:39" x14ac:dyDescent="0.25">
+      <c r="AA44" s="8"/>
+      <c r="AB44" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC44" s="24">
+        <v>22</v>
+      </c>
+      <c r="AD44" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE44" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF44" s="6">
+        <v>676560.33</v>
+      </c>
+      <c r="AG44" s="6">
+        <v>1155216.83</v>
+      </c>
+      <c r="AH44" s="6">
+        <v>910742.08</v>
+      </c>
+      <c r="AI44" s="6">
+        <v>2742519.24</v>
+      </c>
+      <c r="AJ44" s="6">
+        <v>29928.36</v>
+      </c>
+      <c r="AK44" s="6">
+        <v>239105.32</v>
+      </c>
+      <c r="AL44" s="34">
+        <v>756516.55</v>
+      </c>
+      <c r="AM44" s="8"/>
+    </row>
+    <row r="45" spans="27:39" x14ac:dyDescent="0.25">
+      <c r="AA45" s="8"/>
+      <c r="AB45" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC45" s="19">
+        <v>23</v>
+      </c>
+      <c r="AD45" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE45" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF45" s="20">
+        <v>676560.33</v>
+      </c>
+      <c r="AG45" s="20">
+        <v>1155517.95</v>
+      </c>
+      <c r="AH45" s="20">
+        <v>731954.3</v>
+      </c>
+      <c r="AI45" s="20">
+        <v>2564032.58</v>
+      </c>
+      <c r="AJ45" s="20">
+        <v>29036.83</v>
+      </c>
+      <c r="AK45" s="20">
+        <v>223544.04</v>
+      </c>
+      <c r="AL45" s="33">
+        <v>740037.11</v>
+      </c>
+      <c r="AM45" s="8"/>
+    </row>
+    <row r="46" spans="27:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA46" s="8"/>
+      <c r="AB46" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC46" s="37">
+        <v>23</v>
+      </c>
+      <c r="AD46" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE46" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF46" s="38">
+        <v>676560.33</v>
+      </c>
+      <c r="AG46" s="38">
+        <v>1033855.68</v>
+      </c>
+      <c r="AH46" s="38">
+        <v>694344</v>
+      </c>
+      <c r="AI46" s="38">
+        <v>2404760.02</v>
+      </c>
+      <c r="AJ46" s="38">
+        <v>27875.49</v>
+      </c>
+      <c r="AK46" s="38">
+        <v>209657.94</v>
+      </c>
+      <c r="AL46" s="41">
+        <v>727233.12</v>
+      </c>
+      <c r="AM46" s="8"/>
+    </row>
+    <row r="47" spans="27:39" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA47" s="8"/>
+      <c r="AB47" s="8"/>
+      <c r="AC47" s="8"/>
+      <c r="AD47" s="8"/>
+      <c r="AE47" s="8"/>
+      <c r="AF47" s="8"/>
+      <c r="AG47" s="8"/>
+      <c r="AH47" s="8"/>
+      <c r="AI47" s="8"/>
+      <c r="AJ47" s="8"/>
+      <c r="AK47" s="8"/>
+      <c r="AL47" s="8"/>
+      <c r="AM47" s="8"/>
+    </row>
+    <row r="48" spans="27:39" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA48" s="8"/>
+      <c r="AB48" s="8"/>
+      <c r="AC48" s="8"/>
+      <c r="AD48" s="8"/>
+      <c r="AE48" s="8"/>
+      <c r="AF48" s="8"/>
+      <c r="AG48" s="8"/>
+      <c r="AH48" s="8"/>
+      <c r="AI48" s="8"/>
+      <c r="AJ48" s="8"/>
+      <c r="AK48" s="8"/>
+      <c r="AL48" s="8"/>
+      <c r="AM48" s="8"/>
+    </row>
+    <row r="49" spans="27:39" ht="60" x14ac:dyDescent="0.25">
+      <c r="AA49" s="8"/>
+      <c r="AB49" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC49" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD49" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE49" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF49" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG49" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH49" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI49" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ49" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK49" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="AL49" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM49" s="8"/>
+    </row>
+    <row r="50" spans="27:39" x14ac:dyDescent="0.25">
+      <c r="AA50" s="8"/>
+      <c r="AB50" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC50" s="14">
+        <v>6.41</v>
+      </c>
+      <c r="AD50" s="14">
+        <v>142.41</v>
+      </c>
+      <c r="AE50" s="14">
+        <v>71.22</v>
+      </c>
+      <c r="AF50" s="14">
+        <v>71.22</v>
+      </c>
+      <c r="AG50" s="15">
+        <v>1336.87</v>
+      </c>
+      <c r="AH50" s="16">
+        <v>3183.02</v>
+      </c>
+      <c r="AI50" s="14">
+        <v>333.87</v>
+      </c>
+      <c r="AJ50" s="14">
+        <v>323.87</v>
+      </c>
+      <c r="AK50" s="14">
+        <v>804.56</v>
+      </c>
+      <c r="AL50" s="17">
+        <v>20.09</v>
+      </c>
+      <c r="AM50" s="8"/>
+    </row>
+    <row r="51" spans="27:39" x14ac:dyDescent="0.25">
+      <c r="AA51" s="8"/>
+      <c r="AB51" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC51" s="19">
+        <v>1.05</v>
+      </c>
+      <c r="AD51" s="19">
+        <v>146.58000000000001</v>
+      </c>
+      <c r="AE51" s="19">
+        <v>71.22</v>
+      </c>
+      <c r="AF51" s="19">
+        <v>71.239999999999995</v>
+      </c>
+      <c r="AG51" s="20">
+        <v>1376.11</v>
+      </c>
+      <c r="AH51" s="21">
+        <v>3276.44</v>
+      </c>
+      <c r="AI51" s="19">
+        <v>338.09</v>
+      </c>
+      <c r="AJ51" s="19">
+        <v>18.09</v>
+      </c>
+      <c r="AK51" s="19">
+        <v>804.56</v>
+      </c>
+      <c r="AL51" s="22">
+        <v>20.09</v>
+      </c>
+      <c r="AM51" s="8"/>
+    </row>
+    <row r="52" spans="27:39" x14ac:dyDescent="0.25">
+      <c r="AA52" s="8"/>
+      <c r="AB52" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC52" s="24">
+        <v>2.63</v>
+      </c>
+      <c r="AD52" s="24">
+        <v>142.93</v>
+      </c>
+      <c r="AE52" s="24">
+        <v>71.22</v>
+      </c>
+      <c r="AF52" s="24">
+        <v>71.239999999999995</v>
+      </c>
+      <c r="AG52" s="6">
+        <v>1341.81</v>
+      </c>
+      <c r="AH52" s="25">
+        <v>3194.79</v>
+      </c>
+      <c r="AI52" s="24">
+        <v>334.55</v>
+      </c>
+      <c r="AJ52" s="24">
+        <v>174.55</v>
+      </c>
+      <c r="AK52" s="24">
+        <v>804.56</v>
+      </c>
+      <c r="AL52" s="26">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="AM52" s="8"/>
+    </row>
+    <row r="53" spans="27:39" x14ac:dyDescent="0.25">
+      <c r="AA53" s="8"/>
+      <c r="AB53" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC53" s="19">
+        <v>2.66</v>
+      </c>
+      <c r="AD53" s="19">
+        <v>142.93</v>
+      </c>
+      <c r="AE53" s="19">
+        <v>71.22</v>
+      </c>
+      <c r="AF53" s="19">
+        <v>71.239999999999995</v>
+      </c>
+      <c r="AG53" s="20">
+        <v>1341.78</v>
+      </c>
+      <c r="AH53" s="21">
+        <v>3194.71</v>
+      </c>
+      <c r="AI53" s="19">
+        <v>334.53</v>
+      </c>
+      <c r="AJ53" s="19">
+        <v>174.53</v>
+      </c>
+      <c r="AK53" s="19">
+        <v>804.56</v>
+      </c>
+      <c r="AL53" s="22">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="AM53" s="8"/>
+    </row>
+    <row r="54" spans="27:39" x14ac:dyDescent="0.25">
+      <c r="AA54" s="8"/>
+      <c r="AB54" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC54" s="24">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="24">
+        <v>145.13</v>
+      </c>
+      <c r="AE54" s="24">
+        <v>71.22</v>
+      </c>
+      <c r="AF54" s="24">
+        <v>71.239999999999995</v>
+      </c>
+      <c r="AG54" s="6">
+        <v>1362.46</v>
+      </c>
+      <c r="AH54" s="25">
+        <v>3243.95</v>
+      </c>
+      <c r="AI54" s="24">
+        <v>341.58</v>
+      </c>
+      <c r="AJ54" s="24">
+        <v>241.58</v>
+      </c>
+      <c r="AK54" s="24">
+        <v>804.56</v>
+      </c>
+      <c r="AL54" s="26">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="AM54" s="8"/>
+    </row>
+    <row r="55" spans="27:39" x14ac:dyDescent="0.25">
+      <c r="AA55" s="8"/>
+      <c r="AB55" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC55" s="19">
+        <v>1</v>
+      </c>
+      <c r="AD55" s="19">
+        <v>146.38</v>
+      </c>
+      <c r="AE55" s="19">
+        <v>71.22</v>
+      </c>
+      <c r="AF55" s="19">
+        <v>71.239999999999995</v>
+      </c>
+      <c r="AG55" s="20">
+        <v>1374.21</v>
+      </c>
+      <c r="AH55" s="21">
+        <v>3271.92</v>
+      </c>
+      <c r="AI55" s="19">
+        <v>338.25</v>
+      </c>
+      <c r="AJ55" s="19">
+        <v>18.25</v>
+      </c>
+      <c r="AK55" s="19">
+        <v>804.56</v>
+      </c>
+      <c r="AL55" s="22">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="AM55" s="8"/>
+    </row>
+    <row r="56" spans="27:39" x14ac:dyDescent="0.25">
+      <c r="AA56" s="8"/>
+      <c r="AB56" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC56" s="24">
+        <v>3.18</v>
+      </c>
+      <c r="AD56" s="24">
+        <v>142.91</v>
+      </c>
+      <c r="AE56" s="24">
+        <v>71.22</v>
+      </c>
+      <c r="AF56" s="24">
+        <v>71.239999999999995</v>
+      </c>
+      <c r="AG56" s="6">
+        <v>1341.64</v>
+      </c>
+      <c r="AH56" s="25">
+        <v>3194.39</v>
+      </c>
+      <c r="AI56" s="24">
+        <v>334.04</v>
+      </c>
+      <c r="AJ56" s="24">
+        <v>254.04</v>
+      </c>
+      <c r="AK56" s="24">
+        <v>804.56</v>
+      </c>
+      <c r="AL56" s="26">
+        <v>20.09</v>
+      </c>
+      <c r="AM56" s="8"/>
+    </row>
+    <row r="57" spans="27:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA57" s="8"/>
+      <c r="AB57" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC57" s="28">
+        <v>4.63</v>
+      </c>
+      <c r="AD57" s="28">
+        <v>142.26</v>
+      </c>
+      <c r="AE57" s="28">
+        <v>71.22</v>
+      </c>
+      <c r="AF57" s="28">
+        <v>71.239999999999995</v>
+      </c>
+      <c r="AG57" s="29">
+        <v>1335.49</v>
+      </c>
+      <c r="AH57" s="30">
+        <v>3179.75</v>
+      </c>
+      <c r="AI57" s="28">
+        <v>334.44</v>
+      </c>
+      <c r="AJ57" s="28">
+        <v>304.44</v>
+      </c>
+      <c r="AK57" s="28">
+        <v>804.56</v>
+      </c>
+      <c r="AL57" s="31">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="AM57" s="8"/>
+    </row>
+    <row r="58" spans="27:39" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA58" s="8"/>
+      <c r="AB58" s="8"/>
+      <c r="AC58" s="8"/>
+      <c r="AD58" s="8"/>
+      <c r="AE58" s="8"/>
+      <c r="AF58" s="8"/>
+      <c r="AG58" s="8"/>
+      <c r="AH58" s="8"/>
+      <c r="AI58" s="8"/>
+      <c r="AJ58" s="8"/>
+      <c r="AK58" s="8"/>
+      <c r="AL58" s="8"/>
+      <c r="AM58" s="8"/>
+    </row>
+    <row r="59" spans="27:39" ht="75" x14ac:dyDescent="0.25">
+      <c r="AA59" s="8"/>
+      <c r="AB59" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC59" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD59" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE59" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF59" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG59" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH59" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI59" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ59" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK59" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL59" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM59" s="8"/>
+    </row>
+    <row r="60" spans="27:39" x14ac:dyDescent="0.25">
+      <c r="AA60" s="8"/>
+      <c r="AB60" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC60" s="14">
+        <v>22</v>
+      </c>
+      <c r="AD60" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE60" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF60" s="15">
+        <v>676560.33</v>
+      </c>
+      <c r="AG60" s="15">
+        <v>1202397.1200000001</v>
+      </c>
+      <c r="AH60" s="15">
+        <v>1529820.07</v>
+      </c>
+      <c r="AI60" s="15">
+        <v>3408777.52</v>
+      </c>
+      <c r="AJ60" s="15">
+        <v>33401.199999999997</v>
+      </c>
+      <c r="AK60" s="15">
+        <v>297192.76</v>
+      </c>
+      <c r="AL60" s="32">
+        <v>818551.52</v>
+      </c>
+      <c r="AM60" s="8"/>
+    </row>
+    <row r="61" spans="27:39" x14ac:dyDescent="0.25">
+      <c r="AA61" s="8"/>
+      <c r="AB61" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC61" s="19">
+        <v>23</v>
+      </c>
+      <c r="AD61" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE61" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF61" s="20">
+        <v>676560.33</v>
+      </c>
+      <c r="AG61" s="20">
+        <v>464357.87</v>
+      </c>
+      <c r="AH61" s="20">
+        <v>392958</v>
+      </c>
+      <c r="AI61" s="20">
+        <v>1533876.21</v>
+      </c>
+      <c r="AJ61" s="20">
+        <v>21812.57</v>
+      </c>
+      <c r="AK61" s="20">
+        <v>133730.32</v>
+      </c>
+      <c r="AL61" s="33">
+        <v>657821.4</v>
+      </c>
+      <c r="AM61" s="8"/>
+    </row>
+    <row r="62" spans="27:39" x14ac:dyDescent="0.25">
+      <c r="AA62" s="8"/>
+      <c r="AB62" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC62" s="24">
+        <v>23</v>
+      </c>
+      <c r="AD62" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE62" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF62" s="6">
+        <v>676560.33</v>
+      </c>
+      <c r="AG62" s="6">
+        <v>841993.37</v>
+      </c>
+      <c r="AH62" s="6">
+        <v>694344</v>
+      </c>
+      <c r="AI62" s="6">
+        <v>2212897.71</v>
+      </c>
+      <c r="AJ62" s="6">
+        <v>26340.59</v>
+      </c>
+      <c r="AK62" s="6">
+        <v>192930.51</v>
+      </c>
+      <c r="AL62" s="34">
+        <v>709031.81</v>
+      </c>
+      <c r="AM62" s="8"/>
+    </row>
+    <row r="63" spans="27:39" x14ac:dyDescent="0.25">
+      <c r="AA63" s="8"/>
+      <c r="AB63" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC63" s="19">
+        <v>23</v>
+      </c>
+      <c r="AD63" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE63" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF63" s="20">
+        <v>676560.33</v>
+      </c>
+      <c r="AG63" s="20">
+        <v>841934.74</v>
+      </c>
+      <c r="AH63" s="20">
+        <v>694344</v>
+      </c>
+      <c r="AI63" s="20">
+        <v>2212839.0699999998</v>
+      </c>
+      <c r="AJ63" s="20">
+        <v>26340.12</v>
+      </c>
+      <c r="AK63" s="20">
+        <v>192925.39</v>
+      </c>
+      <c r="AL63" s="33">
+        <v>709014.03</v>
+      </c>
+      <c r="AM63" s="8"/>
+    </row>
+    <row r="64" spans="27:39" x14ac:dyDescent="0.25">
+      <c r="AA64" s="8"/>
+      <c r="AB64" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC64" s="24">
+        <v>21</v>
+      </c>
+      <c r="AD64" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE64" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF64" s="6">
+        <v>676560.33</v>
+      </c>
+      <c r="AG64" s="6">
+        <v>1003779.16</v>
+      </c>
+      <c r="AH64" s="6">
+        <v>549689</v>
+      </c>
+      <c r="AI64" s="6">
+        <v>2230028.4900000002</v>
+      </c>
+      <c r="AJ64" s="6">
+        <v>26911.599999999999</v>
+      </c>
+      <c r="AK64" s="6">
+        <v>194424.05</v>
+      </c>
+      <c r="AL64" s="34">
+        <v>718633.11</v>
+      </c>
+      <c r="AM64" s="8"/>
+    </row>
+    <row r="65" spans="27:39" x14ac:dyDescent="0.25">
+      <c r="AA65" s="8"/>
+      <c r="AB65" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC65" s="19">
+        <v>23</v>
+      </c>
+      <c r="AD65" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE65" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF65" s="20">
+        <v>676560.33</v>
+      </c>
+      <c r="AG65" s="20">
+        <v>464733.54</v>
+      </c>
+      <c r="AH65" s="20">
+        <v>404358</v>
+      </c>
+      <c r="AI65" s="20">
+        <v>1545651.87</v>
+      </c>
+      <c r="AJ65" s="20">
+        <v>21872.58</v>
+      </c>
+      <c r="AK65" s="20">
+        <v>134756.97</v>
+      </c>
+      <c r="AL65" s="33">
+        <v>658215.24</v>
+      </c>
+      <c r="AM65" s="8"/>
+    </row>
+    <row r="66" spans="27:39" x14ac:dyDescent="0.25">
+      <c r="AA66" s="8"/>
+      <c r="AB66" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC66" s="24">
+        <v>23</v>
+      </c>
+      <c r="AD66" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE66" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF66" s="6">
+        <v>676560.33</v>
+      </c>
+      <c r="AG66" s="6">
+        <v>1033856.79</v>
+      </c>
+      <c r="AH66" s="6">
+        <v>694344</v>
+      </c>
+      <c r="AI66" s="6">
+        <v>2404761.12</v>
+      </c>
+      <c r="AJ66" s="6">
+        <v>27875.49</v>
+      </c>
+      <c r="AK66" s="6">
+        <v>209658.03</v>
+      </c>
+      <c r="AL66" s="34">
+        <v>727233.73</v>
+      </c>
+      <c r="AM66" s="8"/>
+    </row>
+    <row r="67" spans="27:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA67" s="8"/>
+      <c r="AB67" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC67" s="28">
+        <v>23</v>
+      </c>
+      <c r="AD67" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE67" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF67" s="29">
+        <v>676560.33</v>
+      </c>
+      <c r="AG67" s="29">
+        <v>1155519.79</v>
+      </c>
+      <c r="AH67" s="29">
+        <v>731954.3</v>
+      </c>
+      <c r="AI67" s="29">
+        <v>2564034.42</v>
+      </c>
+      <c r="AJ67" s="29">
+        <v>29036.85</v>
+      </c>
+      <c r="AK67" s="29">
+        <v>223544.21</v>
+      </c>
+      <c r="AL67" s="35">
+        <v>740036.39</v>
+      </c>
+      <c r="AM67" s="8"/>
+    </row>
+    <row r="68" spans="27:39" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA68" s="8"/>
+      <c r="AB68" s="8"/>
+      <c r="AC68" s="8"/>
+      <c r="AD68" s="8"/>
+      <c r="AE68" s="8"/>
+      <c r="AF68" s="8"/>
+      <c r="AG68" s="8"/>
+      <c r="AH68" s="8"/>
+      <c r="AI68" s="8"/>
+      <c r="AJ68" s="8"/>
+      <c r="AK68" s="8"/>
+      <c r="AL68" s="8"/>
+      <c r="AM68" s="8"/>
+    </row>
+    <row r="69" spans="27:39" x14ac:dyDescent="0.25">
+      <c r="AA69" s="8"/>
+      <c r="AM69" s="8"/>
+    </row>
+    <row r="70" spans="27:39" x14ac:dyDescent="0.25">
+      <c r="AA70" s="8"/>
+      <c r="AM70" s="8"/>
+    </row>
+    <row r="71" spans="27:39" x14ac:dyDescent="0.25">
+      <c r="AA71" s="8"/>
+      <c r="AM71" s="8"/>
+    </row>
+    <row r="72" spans="27:39" x14ac:dyDescent="0.25">
+      <c r="AA72" s="8"/>
+      <c r="AM72" s="8"/>
+    </row>
+    <row r="73" spans="27:39" x14ac:dyDescent="0.25">
+      <c r="AA73" s="8"/>
+      <c r="AM73" s="8"/>
+    </row>
+    <row r="74" spans="27:39" x14ac:dyDescent="0.25">
+      <c r="AA74" s="8"/>
+      <c r="AM74" s="8"/>
+    </row>
+    <row r="75" spans="27:39" x14ac:dyDescent="0.25">
+      <c r="AA75" s="8"/>
+      <c r="AM75" s="8"/>
+    </row>
+    <row r="76" spans="27:39" x14ac:dyDescent="0.25">
+      <c r="AA76" s="8"/>
+      <c r="AM76" s="8"/>
+    </row>
+    <row r="77" spans="27:39" x14ac:dyDescent="0.25">
+      <c r="AA77" s="8"/>
+      <c r="AM77" s="8"/>
+    </row>
+    <row r="78" spans="27:39" x14ac:dyDescent="0.25">
+      <c r="AA78" s="8"/>
+      <c r="AM78" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3702,7 +7327,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3968,7 +7593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4374,7 +7999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4600,7 +8225,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4866,7 +8491,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5132,7 +8757,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5398,7 +9023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5644,7 +9269,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5910,7 +9535,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6176,7 +9801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6582,7 +10207,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6908,7 +10533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7314,7 +10939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7600,7 +11225,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8006,7 +11631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8372,7 +11997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8698,7 +12323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
